--- a/Juggernaut Template.xlsx
+++ b/Juggernaut Template.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasschiele/PycharmProjects/GrowOrBreakPlanBuilder/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DE011-070B-0946-A013-711EDA494432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Exercises" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sessions" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Set Styles" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Progressions" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Rules" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Blocks" sheetId="6" r:id="rId9"/>
+    <sheet name="Exercises" sheetId="1" r:id="rId1"/>
+    <sheet name="Sessions" sheetId="2" r:id="rId2"/>
+    <sheet name="Set Styles" sheetId="3" r:id="rId3"/>
+    <sheet name="Progressions" sheetId="4" r:id="rId4"/>
+    <sheet name="Rules" sheetId="5" r:id="rId5"/>
+    <sheet name="Blocks" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="210">
   <si>
     <t>Exercise Type</t>
   </si>
@@ -643,26 +652,32 @@
   </si>
   <si>
     <t>Number of Blocks</t>
+  </si>
+  <si>
+    <t>1RM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFA9B7C6"/>
       <name val="&quot;JetBrains Mono&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -671,7 +686,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -681,55 +696,40 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -919,26 +919,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="4" width="45.0"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,8 +956,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +973,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +990,11 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1041,11 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1035,8 +1058,11 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1075,11 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1092,11 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1077,8 +1109,11 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1091,8 +1126,11 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1105,8 +1143,11 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1119,8 +1160,11 @@
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1133,8 +1177,11 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1194,11 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +1211,11 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1175,8 +1228,11 @@
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1189,8 +1245,11 @@
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1203,8 +1262,11 @@
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1217,8 +1279,11 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1231,8 +1296,11 @@
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1245,8 +1313,11 @@
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1330,11 @@
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="E23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1273,8 +1347,11 @@
       <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1287,8 +1364,11 @@
       <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="E25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1301,8 +1381,11 @@
       <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="E26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1315,8 +1398,11 @@
       <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="E27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1329,8 +1415,11 @@
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1343,8 +1432,11 @@
       <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="E29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1357,8 +1449,11 @@
       <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="E30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1371,8 +1466,11 @@
       <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="E31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1385,8 +1483,11 @@
       <c r="D32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="E32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1399,8 +1500,11 @@
       <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="E33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1413,8 +1517,11 @@
       <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1427,8 +1534,11 @@
       <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="E35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1441,8 +1551,11 @@
       <c r="D36" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1455,8 +1568,11 @@
       <c r="D37" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="E37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1469,8 +1585,11 @@
       <c r="D38" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="E38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1483,8 +1602,11 @@
       <c r="D39" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="E39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1497,8 +1619,11 @@
       <c r="D40" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="E40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1511,8 +1636,11 @@
       <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="E41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1525,8 +1653,11 @@
       <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="E42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1539,8 +1670,11 @@
       <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="E43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1553,8 +1687,11 @@
       <c r="D44" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="E44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1567,8 +1704,11 @@
       <c r="D45" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="E45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1581,8 +1721,11 @@
       <c r="D46" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -1595,8 +1738,11 @@
       <c r="D47" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="E47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1609,8 +1755,11 @@
       <c r="D48" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="E48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1623,8 +1772,11 @@
       <c r="D49" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="E49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1637,8 +1789,11 @@
       <c r="D50" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="E50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
@@ -1651,8 +1806,11 @@
       <c r="D51" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="E51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1665,8 +1823,11 @@
       <c r="D52" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="E52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -1679,8 +1840,11 @@
       <c r="D53" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="E53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -1693,8 +1857,11 @@
       <c r="D54" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="E54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -1707,8 +1874,11 @@
       <c r="D55" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="E55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -1721,8 +1891,11 @@
       <c r="D56" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="E56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -1735,8 +1908,11 @@
       <c r="D57" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="E57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1749,8 +1925,11 @@
       <c r="D58" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="E58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -1763,8 +1942,11 @@
       <c r="D59" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="E59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -1777,8 +1959,11 @@
       <c r="D60" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="E60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1791,8 +1976,11 @@
       <c r="D61" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="E61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -1805,8 +1993,11 @@
       <c r="D62" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="E62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -1819,8 +2010,11 @@
       <c r="D63" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="E63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -1833,8 +2027,11 @@
       <c r="D64" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="E64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -1847,8 +2044,11 @@
       <c r="D65" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="E65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="13">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +2061,11 @@
       <c r="D66" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="E66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="13">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -1875,8 +2078,11 @@
       <c r="D67" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="E67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="13">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1889,8 +2095,11 @@
       <c r="D68" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="E68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="13">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -1903,8 +2112,11 @@
       <c r="D69" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="E69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -1917,8 +2129,11 @@
       <c r="D70" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="E70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -1931,8 +2146,11 @@
       <c r="D71" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="E71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="13">
       <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
@@ -1945,8 +2163,11 @@
       <c r="D72" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="E72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
@@ -1959,8 +2180,11 @@
       <c r="D73" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="E73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="13">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -1973,8 +2197,11 @@
       <c r="D74" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="E74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13">
       <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2214,11 @@
       <c r="D75" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="E75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13">
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
@@ -2001,8 +2231,11 @@
       <c r="D76" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="E76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13">
       <c r="A77" s="1" t="s">
         <v>41</v>
       </c>
@@ -2015,8 +2248,11 @@
       <c r="D77" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="E77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="13">
       <c r="A78" s="1" t="s">
         <v>41</v>
       </c>
@@ -2029,8 +2265,11 @@
       <c r="D78" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="E78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13">
       <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
@@ -2043,8 +2282,11 @@
       <c r="D79" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="E79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="13">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
@@ -2057,8 +2299,11 @@
       <c r="D80" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="E80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -2071,8 +2316,11 @@
       <c r="D81" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="E81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13">
       <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
@@ -2085,8 +2333,11 @@
       <c r="D82" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="E82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2350,11 @@
       <c r="D83" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="E83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13">
       <c r="A84" s="1" t="s">
         <v>41</v>
       </c>
@@ -2113,8 +2367,11 @@
       <c r="D84" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="E84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13">
       <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
@@ -2127,8 +2384,11 @@
       <c r="D85" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="E85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -2141,8 +2401,11 @@
       <c r="D86" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -2155,8 +2418,11 @@
       <c r="D87" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="E87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13">
       <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
@@ -2169,8 +2435,11 @@
       <c r="D88" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="E88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -2183,8 +2452,11 @@
       <c r="D89" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="E89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -2197,8 +2469,11 @@
       <c r="D90" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="E90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -2211,8 +2486,11 @@
       <c r="D91" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="E91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -2225,8 +2503,11 @@
       <c r="D92" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="E92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
@@ -2239,8 +2520,11 @@
       <c r="D93" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="E93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
@@ -2253,8 +2537,11 @@
       <c r="D94" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="E94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
@@ -2267,8 +2554,11 @@
       <c r="D95" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="E95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -2281,8 +2571,11 @@
       <c r="D96" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="E96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
@@ -2295,8 +2588,11 @@
       <c r="D97" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="E97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13">
       <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
@@ -2309,8 +2605,11 @@
       <c r="D98" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="E98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13">
       <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
@@ -2323,27 +2622,31 @@
       <c r="D99" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
-    <col customWidth="1" min="2" max="3" width="23.0"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2354,7 +2657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -2376,7 +2679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2399,26 +2702,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -2429,7 +2733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -2438,7 +2742,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
@@ -2447,7 +2751,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -2458,7 +2762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -2469,7 +2773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
@@ -2478,7 +2782,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
@@ -2489,7 +2793,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
@@ -2500,7 +2804,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -2509,7 +2813,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -2518,7 +2822,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -2527,7 +2831,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -2536,7 +2840,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -2545,7 +2849,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -2556,7 +2860,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
@@ -2567,7 +2871,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -2576,7 +2880,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>167</v>
       </c>
@@ -2587,7 +2891,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
@@ -2598,7 +2902,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -2607,7 +2911,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -2618,7 +2922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2629,7 +2933,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
@@ -2638,7 +2942,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>179</v>
       </c>
@@ -2649,7 +2953,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>181</v>
       </c>
@@ -2661,25 +2965,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.0"/>
-    <col customWidth="1" min="2" max="2" width="102.0"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -2687,7 +2992,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -2695,7 +3000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
@@ -2703,7 +3008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>184</v>
       </c>
@@ -2711,7 +3016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>186</v>
       </c>
@@ -2720,27 +3025,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -2754,7 +3060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -2768,7 +3074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -2782,7 +3088,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
@@ -2796,7 +3102,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
@@ -2810,7 +3116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -2824,7 +3130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
@@ -2838,7 +3144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
@@ -2852,7 +3158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
@@ -2866,7 +3172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2880,7 +3186,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
@@ -2894,7 +3200,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>202</v>
       </c>
@@ -2908,7 +3214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
@@ -2922,7 +3228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -2936,7 +3242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>205</v>
       </c>
@@ -2950,7 +3256,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>206</v>
       </c>
@@ -2964,7 +3270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
@@ -2978,7 +3284,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>131</v>
       </c>
@@ -2992,7 +3298,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>131</v>
       </c>
@@ -3006,7 +3312,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -3020,7 +3326,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -3035,31 +3341,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Juggernaut Template.xlsx
+++ b/Juggernaut Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasschiele/PycharmProjects/GrowOrBreakPlanBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DE011-070B-0946-A013-711EDA494432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926EFED3-5091-B141-958C-008A821F26FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -603,65 +603,65 @@
     <t>Block Progression</t>
   </si>
   <si>
-    <t>Block 1</t>
-  </si>
-  <si>
-    <t>Block 2</t>
-  </si>
-  <si>
-    <t>Block 3</t>
-  </si>
-  <si>
-    <t>Block 4</t>
-  </si>
-  <si>
-    <t>Block 5</t>
-  </si>
-  <si>
-    <t>Block 6</t>
-  </si>
-  <si>
-    <t>Block 7</t>
-  </si>
-  <si>
-    <t>Block 8</t>
-  </si>
-  <si>
-    <t>Block 9</t>
-  </si>
-  <si>
-    <t>Block 10</t>
-  </si>
-  <si>
-    <t>Block 11</t>
-  </si>
-  <si>
-    <t>Block 12</t>
-  </si>
-  <si>
-    <t>Block 13</t>
-  </si>
-  <si>
-    <t>Block 14</t>
-  </si>
-  <si>
-    <t>Block 15</t>
-  </si>
-  <si>
-    <t>Block 16</t>
-  </si>
-  <si>
     <t>Number of Blocks</t>
   </si>
   <si>
     <t>1RM</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -676,6 +676,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,7 +937,7 @@
   </sheetPr>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -3036,7 +3042,9 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3062,7 +3070,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>131</v>
@@ -3076,7 +3084,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>131</v>
@@ -3090,7 +3098,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>131</v>
@@ -3104,7 +3112,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>131</v>
@@ -3118,7 +3126,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>131</v>
@@ -3132,7 +3140,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>131</v>
@@ -3146,7 +3154,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>131</v>
@@ -3160,7 +3168,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>131</v>
@@ -3174,7 +3182,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>131</v>
@@ -3188,7 +3196,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>131</v>
@@ -3202,7 +3210,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>131</v>
@@ -3216,7 +3224,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>131</v>
@@ -3230,7 +3238,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>131</v>
@@ -3244,7 +3252,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>131</v>
@@ -3258,7 +3266,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>131</v>
@@ -3272,7 +3280,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>131</v>
@@ -3341,6 +3349,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3358,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
